--- a/DOC/総合テスト/総合試験項目仕様書_給料自動作成.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_給料自動作成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C06D6-CFA5-46A3-8ACB-996E8A1D6DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0B700-D1D8-491D-9EBC-57F5F43E1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28620" yWindow="1050" windowWidth="7875" windowHeight="14550" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -316,14 +316,7 @@
     <t>20240920</t>
   </si>
   <si>
-    <t>20240815</t>
-  </si>
-  <si>
     <t>202408</t>
-  </si>
-  <si>
-    <t>E00003</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>No.3</t>
@@ -455,42 +448,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">④　EMSMシステムの「給料管理」リンクをクリックする
-⑤　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    
-</t>
-    <rPh sb="12" eb="14">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="71" eb="75">
-      <t>イッカツサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">①給料が自動作成
 ②登録成功
 ③salaryinfoテブールにNo.1の社員の行が新規登録。給料情報が「テストデータ」シートのNo.3の値と同じ
@@ -548,14 +505,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">④　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック
-</t>
-    <rPh sb="45" eb="49">
-      <t>キュウリョウメイサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">①給料明細が表示
 ②salaryinfoテブールの給料情報が「テストデータ」シートのNo.3の値と同じ
 </t>
@@ -573,6 +522,66 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④　管理者がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする
+⑤　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    
+</t>
+    <rPh sb="2" eb="5">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="87" eb="91">
+      <t>イッカツサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>20240823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">④　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック
+⑤給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック
+</t>
+    <rPh sb="45" eb="49">
+      <t>キュウリョウメイサイ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>キュウリョウメイサイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -620,10 +629,12 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -633,6 +644,7 @@
     <font>
       <sz val="11"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -659,6 +671,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -713,14 +726,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -728,6 +733,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1259,26 +1270,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1368,104 +1377,116 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1474,18 +1495,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2408,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BO9" sqref="BO9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AU39" sqref="AT39:AU39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2490,302 +2499,302 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
       <c r="BM3" s="30"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="94"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="97"/>
       <c r="AW4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="96">
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="99">
         <v>45519</v>
       </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
       <c r="BF4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="96" t="s">
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="93"/>
-      <c r="BM4" s="42"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="40"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="98" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="98" t="s">
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="99"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="98" t="s">
+      <c r="AX5" s="100"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="100"/>
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100"/>
+      <c r="BC5" s="100"/>
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="100"/>
+      <c r="BF5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="99"/>
-      <c r="BI5" s="97"/>
-      <c r="BJ5" s="100"/>
-      <c r="BK5" s="100"/>
-      <c r="BL5" s="100"/>
+      <c r="BG5" s="100"/>
+      <c r="BH5" s="102"/>
+      <c r="BI5" s="100"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="6" spans="1:65" ht="15.6" thickTop="1"/>
-    <row r="7" spans="1:65" s="43" customFormat="1">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:65" s="41" customFormat="1">
+      <c r="A7" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76" t="s">
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="76" t="s">
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="76" t="s">
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="79"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="79"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="80"/>
+      <c r="AY7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="77"/>
-      <c r="BA7" s="77"/>
-      <c r="BB7" s="77"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="76" t="s">
+      <c r="AZ7" s="79"/>
+      <c r="BA7" s="79"/>
+      <c r="BB7" s="79"/>
+      <c r="BC7" s="79"/>
+      <c r="BD7" s="80"/>
+      <c r="BE7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="76" t="s">
+      <c r="BF7" s="79"/>
+      <c r="BG7" s="79"/>
+      <c r="BH7" s="79"/>
+      <c r="BI7" s="80"/>
+      <c r="BJ7" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="78"/>
+      <c r="BK7" s="79"/>
+      <c r="BL7" s="79"/>
+      <c r="BM7" s="80"/>
     </row>
     <row r="8" spans="1:65" ht="69.75" customHeight="1">
       <c r="A8" s="69">
@@ -2803,7 +2812,7 @@
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="81" t="s">
         <v>24</v>
       </c>
       <c r="M8" s="66"/>
@@ -2812,26 +2821,26 @@
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="67"/>
-      <c r="S8" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="81"/>
+      <c r="S8" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="84"/>
       <c r="AK8" s="66" t="s">
         <v>62</v>
       </c>
@@ -2865,13 +2874,13 @@
       <c r="BM8" s="67"/>
     </row>
     <row r="9" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
-      <c r="A9" s="105">
+      <c r="A9" s="108">
         <v>2</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="70"/>
       <c r="F9" s="70"/>
@@ -2889,26 +2898,26 @@
       <c r="P9" s="70"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="72"/>
-      <c r="S9" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="74"/>
+      <c r="S9" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="109"/>
       <c r="AK9" s="70" t="s">
         <v>63</v>
       </c>
@@ -2925,18 +2934,18 @@
       <c r="AV9" s="70"/>
       <c r="AW9" s="70"/>
       <c r="AX9" s="72"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="107"/>
-      <c r="BA9" s="107"/>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="108"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="112"/>
       <c r="BE9" s="70"/>
       <c r="BF9" s="70"/>
       <c r="BG9" s="70"/>
       <c r="BH9" s="70"/>
       <c r="BI9" s="72"/>
-      <c r="BJ9" s="106"/>
+      <c r="BJ9" s="110"/>
       <c r="BK9" s="70"/>
       <c r="BL9" s="70"/>
       <c r="BM9" s="72"/>
@@ -2948,7 +2957,7 @@
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
       <c r="D10" s="70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
@@ -2958,7 +2967,7 @@
       <c r="J10" s="70"/>
       <c r="K10" s="70"/>
       <c r="L10" s="71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
@@ -2966,28 +2975,28 @@
       <c r="P10" s="70"/>
       <c r="Q10" s="70"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="74"/>
+      <c r="S10" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="109"/>
       <c r="AK10" s="70" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="70"/>
       <c r="AM10" s="70"/>
@@ -3025,7 +3034,7 @@
       <c r="B11" s="69"/>
       <c r="C11" s="69"/>
       <c r="D11" s="70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
@@ -3035,7 +3044,7 @@
       <c r="J11" s="70"/>
       <c r="K11" s="70"/>
       <c r="L11" s="71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M11" s="70"/>
       <c r="N11" s="70"/>
@@ -3043,42 +3052,42 @@
       <c r="P11" s="70"/>
       <c r="Q11" s="70"/>
       <c r="R11" s="72"/>
-      <c r="S11" s="109" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="109"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="111" t="s">
+      <c r="S11" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="112"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="76"/>
       <c r="AY11" s="64"/>
       <c r="AZ11" s="64"/>
       <c r="BA11" s="64"/>
@@ -3166,7 +3175,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -3193,10 +3202,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="35" customFormat="1" ht="54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="42" customFormat="1" ht="54">
       <c r="A2" s="35" t="s">
         <v>56</v>
       </c>
@@ -3300,104 +3309,104 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="18">
-      <c r="A3" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="39" t="s">
+    <row r="3" spans="1:34" s="42" customFormat="1" ht="18">
+      <c r="A3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="40">
-        <v>350000</v>
-      </c>
-      <c r="F3" s="40">
+      <c r="E3" s="43">
+        <v>300000</v>
+      </c>
+      <c r="F3" s="43">
         <v>178</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="43">
         <v>0</v>
       </c>
-      <c r="H3" s="40">
-        <v>284800</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="H3" s="43">
+        <v>267000</v>
+      </c>
+      <c r="I3" s="43">
         <v>0</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="43">
         <v>0</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="43">
         <v>0</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="43">
         <v>0</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="43">
         <v>0</v>
       </c>
       <c r="N3" s="38"/>
-      <c r="O3" s="40">
+      <c r="O3" s="43">
         <v>5</v>
       </c>
-      <c r="P3" s="40">
+      <c r="P3" s="43">
         <v>5</v>
       </c>
-      <c r="Q3" s="40">
+      <c r="Q3" s="43">
         <v>3</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="43">
         <v>3</v>
       </c>
-      <c r="S3" s="40">
-        <v>18</v>
-      </c>
-      <c r="T3" s="40">
+      <c r="S3" s="43">
+        <v>15</v>
+      </c>
+      <c r="T3" s="43">
         <v>5</v>
       </c>
-      <c r="U3" s="40">
-        <v>9</v>
-      </c>
-      <c r="V3" s="40">
+      <c r="U3" s="43">
+        <v>8</v>
+      </c>
+      <c r="V3" s="43">
         <v>3</v>
       </c>
-      <c r="W3" s="40">
+      <c r="W3" s="43">
         <v>2</v>
       </c>
-      <c r="X3" s="40">
-        <v>8100</v>
-      </c>
-      <c r="Y3" s="40">
-        <v>2010</v>
-      </c>
-      <c r="Z3" s="40">
+      <c r="X3" s="43">
+        <v>8200</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>2020</v>
+      </c>
+      <c r="Z3" s="43">
         <v>0</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AA3" s="43">
         <v>0</v>
       </c>
-      <c r="AB3" s="40">
+      <c r="AB3" s="43">
         <v>0</v>
       </c>
-      <c r="AC3" s="40">
-        <v>624677</v>
-      </c>
-      <c r="AD3" s="40">
-        <v>624717</v>
+      <c r="AC3" s="43">
+        <v>556767</v>
+      </c>
+      <c r="AD3" s="43">
+        <v>556803</v>
       </c>
       <c r="AE3" s="38"/>
-      <c r="AF3" s="39" t="s">
+      <c r="AF3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH3" s="39" t="s">
-        <v>68</v>
+      <c r="AG3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="38" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/総合テスト/総合試験項目仕様書_給料自動作成.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_給料自動作成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0B700-D1D8-491D-9EBC-57F5F43E1863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A21DF-4561-4164-A3A1-76AB9AFF2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="1050" windowWidth="7875" windowHeight="14550" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="256">
   <si>
     <t>No</t>
   </si>
@@ -585,6 +585,535 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>他のテーブルのデータ</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>202407</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>companyID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>payOff</t>
+  </si>
+  <si>
+    <t>lowerTime</t>
+  </si>
+  <si>
+    <t>lowerPrice</t>
+  </si>
+  <si>
+    <t>upperTime</t>
+  </si>
+  <si>
+    <t>upperPrice</t>
+  </si>
+  <si>
+    <t>contractBeginDate</t>
+  </si>
+  <si>
+    <t>contractEndDate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>postNeed</t>
+  </si>
+  <si>
+    <t>timeReportPath</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CT001</t>
+  </si>
+  <si>
+    <t>轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>20210131</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>D:/tmp/work</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20240401</t>
+  </si>
+  <si>
+    <t>CT002</t>
+  </si>
+  <si>
+    <t>豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蝨滄＝蠢崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>ソン</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19990902</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20190101</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2310851</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>07012344321</t>
+  </si>
+  <si>
+    <t>e001@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240530</t>
+  </si>
+  <si>
+    <t>123131231231</t>
+  </si>
+  <si>
+    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
+  </si>
+  <si>
+    <t>2001-10-22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>07012344322</t>
+  </si>
+  <si>
+    <t>nguyen1</t>
+  </si>
+  <si>
+    <t>e003@it-softtech.com</t>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>baseSalary</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>wkPeriodFrom</t>
+  </si>
+  <si>
+    <t>wkPeriodTo</t>
+  </si>
+  <si>
+    <t>overtimePay</t>
+  </si>
+  <si>
+    <t>insufficienttimePay</t>
+  </si>
+  <si>
+    <t>baseSalaryID</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>20240101</t>
+  </si>
+  <si>
+    <t>20240808</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>m_basesalary</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emplyinsrateID</t>
+  </si>
+  <si>
+    <t>laborBurdenRate</t>
+  </si>
+  <si>
+    <t>employerBurdenRate</t>
+  </si>
+  <si>
+    <t>industrialAccidentInsuranceRate</t>
+  </si>
+  <si>
+    <t>contributionRate</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>m_emplyinsrate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>incomeTaxID</t>
+  </si>
+  <si>
+    <t>incomeTax1</t>
+  </si>
+  <si>
+    <t>incomeTax2</t>
+  </si>
+  <si>
+    <t>incomeTax3</t>
+  </si>
+  <si>
+    <t>incomeTax4</t>
+  </si>
+  <si>
+    <t>incomeTax5</t>
+  </si>
+  <si>
+    <t>incomeTax6</t>
+  </si>
+  <si>
+    <t>incomeTax7</t>
+  </si>
+  <si>
+    <t>incomeTax8</t>
+  </si>
+  <si>
+    <t>incomeTax9</t>
+  </si>
+  <si>
+    <t>incomeTax10</t>
+  </si>
+  <si>
+    <t>incomeTax11</t>
+  </si>
+  <si>
+    <t>incomeTax12</t>
+  </si>
+  <si>
+    <t>residentTax1</t>
+  </si>
+  <si>
+    <t>residentTax2</t>
+  </si>
+  <si>
+    <t>residentTax3</t>
+  </si>
+  <si>
+    <t>residentTax4</t>
+  </si>
+  <si>
+    <t>residentTax5</t>
+  </si>
+  <si>
+    <t>residentTax6</t>
+  </si>
+  <si>
+    <t>residentTax7</t>
+  </si>
+  <si>
+    <t>residentTax8</t>
+  </si>
+  <si>
+    <t>residentTax9</t>
+  </si>
+  <si>
+    <t>residentTax10</t>
+  </si>
+  <si>
+    <t>residentTax11</t>
+  </si>
+  <si>
+    <t>residentTax12</t>
+  </si>
+  <si>
+    <t>20240807</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>m_incometax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rateID</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>20240801</t>
+  </si>
+  <si>
+    <t>welfarefeeID</t>
+  </si>
+  <si>
+    <t>standSalary</t>
+  </si>
+  <si>
+    <t>salaryFrom</t>
+  </si>
+  <si>
+    <t>salaryTo</t>
+  </si>
+  <si>
+    <t>notCareRatio</t>
+  </si>
+  <si>
+    <t>careRatio</t>
+  </si>
+  <si>
+    <t>annuityRatio</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>m_welfarebabyrate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_welfarefee</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workMonth</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>startStation</t>
+  </si>
+  <si>
+    <t>endStation</t>
+  </si>
+  <si>
+    <t>transportFacility</t>
+  </si>
+  <si>
+    <t>transportExpense1</t>
+  </si>
+  <si>
+    <t>midStation1</t>
+  </si>
+  <si>
+    <t>transportFacility1</t>
+  </si>
+  <si>
+    <t>midStation2</t>
+  </si>
+  <si>
+    <t>transportFacility2</t>
+  </si>
+  <si>
+    <t>midStation3</t>
+  </si>
+  <si>
+    <t>transportFacility3</t>
+  </si>
+  <si>
+    <t>transportExpense2</t>
+  </si>
+  <si>
+    <t>transportExpense3</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>businessTrip</t>
+  </si>
+  <si>
+    <t>BusinessTripName</t>
+  </si>
+  <si>
+    <t>20230230</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Nishikawaguchi</t>
+  </si>
+  <si>
+    <t>Nippori</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>transport</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workStartDay</t>
+  </si>
+  <si>
+    <t>workEndDay</t>
+  </si>
+  <si>
+    <t>workTime</t>
+  </si>
+  <si>
+    <t>workInfoFile</t>
+  </si>
+  <si>
+    <t>20240831</t>
+  </si>
+  <si>
+    <t>20240701</t>
+  </si>
+  <si>
+    <t>20240731</t>
+  </si>
+  <si>
+    <t>workinfo</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -593,7 +1122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +1269,22 @@
       <name val="Klee One SemiBold"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1158,7 +1703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,32 +1894,140 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1388,113 +2041,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2417,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AU39" sqref="AT39:AU39"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8:AX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2499,646 +3065,621 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
       <c r="BM3" s="30"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92" t="s">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="96"/>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="96"/>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="66" t="s">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="99">
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="89">
         <v>45519</v>
       </c>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="66" t="s">
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="99" t="s">
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="96"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
       <c r="BM4" s="40"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="101" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="101" t="s">
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="100"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="100"/>
-      <c r="BA5" s="100"/>
-      <c r="BB5" s="100"/>
-      <c r="BC5" s="100"/>
-      <c r="BD5" s="100"/>
-      <c r="BE5" s="100"/>
-      <c r="BF5" s="101" t="s">
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="80"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="100"/>
-      <c r="BH5" s="102"/>
-      <c r="BI5" s="100"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="85"/>
+      <c r="BK5" s="85"/>
+      <c r="BL5" s="85"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="6" spans="1:65" ht="15.6" thickTop="1"/>
     <row r="7" spans="1:65" s="41" customFormat="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="78" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="78" t="s">
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="80"/>
-      <c r="AY7" s="78" t="s">
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="79"/>
-      <c r="BB7" s="79"/>
-      <c r="BC7" s="79"/>
-      <c r="BD7" s="80"/>
-      <c r="BE7" s="78" t="s">
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="BF7" s="79"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="79"/>
-      <c r="BI7" s="80"/>
-      <c r="BJ7" s="78" t="s">
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BK7" s="79"/>
-      <c r="BL7" s="79"/>
-      <c r="BM7" s="80"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="106"/>
     </row>
     <row r="8" spans="1:65" ht="69.75" customHeight="1">
-      <c r="A8" s="69">
+      <c r="A8" s="77">
         <v>1</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="81" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="82" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="66" t="s">
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="67"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="70"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="70"/>
+      <c r="BH8" s="70"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="70"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="71"/>
     </row>
     <row r="9" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
-      <c r="A9" s="108">
+      <c r="A9" s="78">
         <v>2</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="70" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71" t="s">
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="82" t="s">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="70" t="s">
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="70"/>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="112"/>
-      <c r="BE9" s="70"/>
-      <c r="BF9" s="70"/>
-      <c r="BG9" s="70"/>
-      <c r="BH9" s="70"/>
-      <c r="BI9" s="72"/>
-      <c r="BJ9" s="110"/>
-      <c r="BK9" s="70"/>
-      <c r="BL9" s="70"/>
-      <c r="BM9" s="72"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="68"/>
+      <c r="BJ9" s="66"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="68"/>
     </row>
     <row r="10" spans="1:65" ht="184.2" customHeight="1">
-      <c r="A10" s="69">
+      <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="82" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="70" t="s">
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="70"/>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="70"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="67"/>
-      <c r="BJ10" s="68"/>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="67"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="67"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="69"/>
+      <c r="BK10" s="70"/>
+      <c r="BL10" s="70"/>
+      <c r="BM10" s="71"/>
     </row>
     <row r="11" spans="1:65" ht="52.2" customHeight="1">
-      <c r="A11" s="69">
+      <c r="A11" s="77">
         <v>4</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="73" t="s">
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="75" t="s">
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
+      <c r="AH11" s="109"/>
+      <c r="AI11" s="109"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="75"/>
-      <c r="AP11" s="75"/>
-      <c r="AQ11" s="75"/>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="75"/>
-      <c r="AT11" s="75"/>
-      <c r="AU11" s="75"/>
-      <c r="AV11" s="75"/>
-      <c r="AW11" s="75"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="65"/>
-      <c r="BE11" s="66"/>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="66"/>
-      <c r="BI11" s="67"/>
-      <c r="BJ11" s="68"/>
-      <c r="BK11" s="66"/>
-      <c r="BL11" s="66"/>
-      <c r="BM11" s="67"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="111"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="70"/>
+      <c r="BG11" s="70"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="69"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
     <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BE8:BI8"/>
     <mergeCell ref="BJ8:BM8"/>
@@ -3155,14 +3696,39 @@
     <mergeCell ref="AY7:BD7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3172,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -3409,6 +3975,1429 @@
         <v>82</v>
       </c>
     </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="36">
+      <c r="B8" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="18">
+      <c r="B9" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="114">
+        <v>600000</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="114">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="114">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" s="113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="18">
+      <c r="B10" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="114">
+        <v>600000</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="114">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="114">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="S10" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" s="113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="18">
+      <c r="B11" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="114">
+        <v>600000</v>
+      </c>
+      <c r="G11" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="114">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="114">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="36" customFormat="1" ht="18">
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="36">
+      <c r="B15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="18">
+      <c r="B16" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="113" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="R16" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="18">
+      <c r="B17" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17" s="113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="36" customFormat="1" ht="18">
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="116"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="36">
+      <c r="B21" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="18">
+      <c r="B22" s="114">
+        <v>300000</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="114">
+        <v>1</v>
+      </c>
+      <c r="E22" s="114">
+        <v>12</v>
+      </c>
+      <c r="F22" s="118">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="118">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="114">
+        <v>1</v>
+      </c>
+      <c r="I22" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="36">
+      <c r="B26" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="18">
+      <c r="B27" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="118">
+        <v>1.567E-2</v>
+      </c>
+      <c r="E27" s="118">
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="F27" s="118">
+        <v>6.7799999999999996E-3</v>
+      </c>
+      <c r="G27" s="118">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="H27" s="114">
+        <v>1</v>
+      </c>
+      <c r="I27" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="36">
+      <c r="B31" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="R31" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="T31" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="V31" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="W31" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="X31" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y31" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z31" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA31" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB31" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC31" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE31" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="18">
+      <c r="B32" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="114">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="114">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="114">
+        <v>3000</v>
+      </c>
+      <c r="H32" s="114">
+        <v>4000</v>
+      </c>
+      <c r="I32" s="114">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="114">
+        <v>6000</v>
+      </c>
+      <c r="K32" s="114">
+        <v>7000</v>
+      </c>
+      <c r="L32" s="114">
+        <v>8000</v>
+      </c>
+      <c r="M32" s="114">
+        <v>9000</v>
+      </c>
+      <c r="N32" s="114">
+        <v>10000</v>
+      </c>
+      <c r="O32" s="114">
+        <v>11000</v>
+      </c>
+      <c r="P32" s="114">
+        <v>12000</v>
+      </c>
+      <c r="Q32" s="114">
+        <v>1300</v>
+      </c>
+      <c r="R32" s="114">
+        <v>1400</v>
+      </c>
+      <c r="S32" s="114">
+        <v>1500</v>
+      </c>
+      <c r="T32" s="114">
+        <v>1600</v>
+      </c>
+      <c r="U32" s="114">
+        <v>1700</v>
+      </c>
+      <c r="V32" s="114">
+        <v>1800</v>
+      </c>
+      <c r="W32" s="114">
+        <v>1900</v>
+      </c>
+      <c r="X32" s="114">
+        <v>2000</v>
+      </c>
+      <c r="Y32" s="114">
+        <v>2100</v>
+      </c>
+      <c r="Z32" s="114">
+        <v>2200</v>
+      </c>
+      <c r="AA32" s="114">
+        <v>2300</v>
+      </c>
+      <c r="AB32" s="114">
+        <v>2400</v>
+      </c>
+      <c r="AC32" s="114">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE32" s="113" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="18">
+      <c r="B33" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="114">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="114">
+        <v>2100</v>
+      </c>
+      <c r="G33" s="114">
+        <v>3100</v>
+      </c>
+      <c r="H33" s="114">
+        <v>4100</v>
+      </c>
+      <c r="I33" s="114">
+        <v>5100</v>
+      </c>
+      <c r="J33" s="114">
+        <v>6100</v>
+      </c>
+      <c r="K33" s="114">
+        <v>7100</v>
+      </c>
+      <c r="L33" s="114">
+        <v>8100</v>
+      </c>
+      <c r="M33" s="114">
+        <v>9100</v>
+      </c>
+      <c r="N33" s="114">
+        <v>10100</v>
+      </c>
+      <c r="O33" s="114">
+        <v>11100</v>
+      </c>
+      <c r="P33" s="114">
+        <v>12100</v>
+      </c>
+      <c r="Q33" s="114">
+        <v>1310</v>
+      </c>
+      <c r="R33" s="114">
+        <v>1410</v>
+      </c>
+      <c r="S33" s="114">
+        <v>1510</v>
+      </c>
+      <c r="T33" s="114">
+        <v>1610</v>
+      </c>
+      <c r="U33" s="114">
+        <v>1710</v>
+      </c>
+      <c r="V33" s="114">
+        <v>1810</v>
+      </c>
+      <c r="W33" s="114">
+        <v>1910</v>
+      </c>
+      <c r="X33" s="114">
+        <v>2010</v>
+      </c>
+      <c r="Y33" s="114">
+        <v>2110</v>
+      </c>
+      <c r="Z33" s="114">
+        <v>2210</v>
+      </c>
+      <c r="AA33" s="114">
+        <v>2310</v>
+      </c>
+      <c r="AB33" s="114">
+        <v>2410</v>
+      </c>
+      <c r="AC33" s="114">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE33" s="113" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="18">
+      <c r="B34" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="114">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="114">
+        <v>2200</v>
+      </c>
+      <c r="G34" s="114">
+        <v>3200</v>
+      </c>
+      <c r="H34" s="114">
+        <v>4200</v>
+      </c>
+      <c r="I34" s="114">
+        <v>5200</v>
+      </c>
+      <c r="J34" s="114">
+        <v>6200</v>
+      </c>
+      <c r="K34" s="114">
+        <v>7200</v>
+      </c>
+      <c r="L34" s="114">
+        <v>8200</v>
+      </c>
+      <c r="M34" s="114">
+        <v>9200</v>
+      </c>
+      <c r="N34" s="114">
+        <v>10200</v>
+      </c>
+      <c r="O34" s="114">
+        <v>11200</v>
+      </c>
+      <c r="P34" s="114">
+        <v>12200</v>
+      </c>
+      <c r="Q34" s="114">
+        <v>1320</v>
+      </c>
+      <c r="R34" s="114">
+        <v>1420</v>
+      </c>
+      <c r="S34" s="114">
+        <v>1520</v>
+      </c>
+      <c r="T34" s="114">
+        <v>1620</v>
+      </c>
+      <c r="U34" s="114">
+        <v>1720</v>
+      </c>
+      <c r="V34" s="114">
+        <v>1820</v>
+      </c>
+      <c r="W34" s="114">
+        <v>1920</v>
+      </c>
+      <c r="X34" s="114">
+        <v>2020</v>
+      </c>
+      <c r="Y34" s="114">
+        <v>2120</v>
+      </c>
+      <c r="Z34" s="114">
+        <v>2220</v>
+      </c>
+      <c r="AA34" s="114">
+        <v>2320</v>
+      </c>
+      <c r="AB34" s="114">
+        <v>2420</v>
+      </c>
+      <c r="AC34" s="114">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE34" s="113" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="18">
+      <c r="B38" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="18">
+      <c r="B39" s="114">
+        <v>1</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="118">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="114">
+        <v>1</v>
+      </c>
+      <c r="G39" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="36">
+      <c r="B43" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="18">
+      <c r="B44" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="114">
+        <v>200000</v>
+      </c>
+      <c r="F44" s="114">
+        <v>250000</v>
+      </c>
+      <c r="G44" s="114">
+        <v>400000</v>
+      </c>
+      <c r="H44" s="118">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I44" s="118">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J44" s="118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K44" s="114">
+        <v>1</v>
+      </c>
+      <c r="L44" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="M44" s="113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="36">
+      <c r="B48" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="M48" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="N48" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P48" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q48" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="R48" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="S48" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="T48" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="U48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="18">
+      <c r="B49" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="114">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="N49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="O49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="R49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="S49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="T49" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="U49" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" s="115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="18">
+      <c r="B50" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="113" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50" s="114">
+        <v>6950</v>
+      </c>
+      <c r="I50" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="M50" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="N50" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="O50" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q50" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="R50" s="114">
+        <v>0</v>
+      </c>
+      <c r="S50" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="T50" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="U50" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="V50" s="115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="36">
+      <c r="B54" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="18">
+      <c r="B55" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="114">
+        <v>199</v>
+      </c>
+      <c r="G55" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="18">
+      <c r="B56" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="114">
+        <v>190</v>
+      </c>
+      <c r="G56" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="115" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/総合テスト/総合試験項目仕様書_給料自動作成.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_給料自動作成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A21DF-4561-4164-A3A1-76AB9AFF2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BD713-DEE0-4060-99AE-07542707A1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="258">
   <si>
     <t>No</t>
   </si>
@@ -221,16 +221,6 @@
     <t>自動請求</t>
     <rPh sb="0" eb="4">
       <t>ジドウセイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>稼働新規登録</t>
-    <rPh sb="0" eb="2">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>シンキトウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -324,11 +314,6 @@
   </si>
   <si>
     <t>salaryInfo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①システム管理者が自分のアカウント（e003@it-softtech.com)でEMSへログインする
-②EMSシステムの「勤怠情報」をクリック</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -428,22 +413,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者が給料自動作成</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「テストデータ」シートのNo.3</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -526,53 +495,649 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">④　管理者がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>20240823</t>
+  </si>
+  <si>
+    <t>他のテーブルのデータ</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>202407</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>companyID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>payOff</t>
+  </si>
+  <si>
+    <t>lowerTime</t>
+  </si>
+  <si>
+    <t>lowerPrice</t>
+  </si>
+  <si>
+    <t>upperTime</t>
+  </si>
+  <si>
+    <t>upperPrice</t>
+  </si>
+  <si>
+    <t>contractBeginDate</t>
+  </si>
+  <si>
+    <t>contractEndDate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>postNeed</t>
+  </si>
+  <si>
+    <t>timeReportPath</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CT001</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>20210131</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>D:/tmp/work</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20240401</t>
+  </si>
+  <si>
+    <t>CT002</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>20240530</t>
+  </si>
+  <si>
+    <t>123131231231</t>
+  </si>
+  <si>
+    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>07012344322</t>
+  </si>
+  <si>
+    <t>nguyen1</t>
+  </si>
+  <si>
+    <t>e003@it-softtech.com</t>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>baseSalary</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>wkPeriodFrom</t>
+  </si>
+  <si>
+    <t>wkPeriodTo</t>
+  </si>
+  <si>
+    <t>overtimePay</t>
+  </si>
+  <si>
+    <t>insufficienttimePay</t>
+  </si>
+  <si>
+    <t>baseSalaryID</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>20240101</t>
+  </si>
+  <si>
+    <t>20240808</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>m_basesalary</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>emplyinsrateID</t>
+  </si>
+  <si>
+    <t>laborBurdenRate</t>
+  </si>
+  <si>
+    <t>employerBurdenRate</t>
+  </si>
+  <si>
+    <t>industrialAccidentInsuranceRate</t>
+  </si>
+  <si>
+    <t>contributionRate</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>m_emplyinsrate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>incomeTaxID</t>
+  </si>
+  <si>
+    <t>incomeTax1</t>
+  </si>
+  <si>
+    <t>incomeTax2</t>
+  </si>
+  <si>
+    <t>incomeTax3</t>
+  </si>
+  <si>
+    <t>incomeTax4</t>
+  </si>
+  <si>
+    <t>incomeTax5</t>
+  </si>
+  <si>
+    <t>incomeTax6</t>
+  </si>
+  <si>
+    <t>incomeTax7</t>
+  </si>
+  <si>
+    <t>incomeTax8</t>
+  </si>
+  <si>
+    <t>incomeTax9</t>
+  </si>
+  <si>
+    <t>incomeTax10</t>
+  </si>
+  <si>
+    <t>incomeTax11</t>
+  </si>
+  <si>
+    <t>incomeTax12</t>
+  </si>
+  <si>
+    <t>residentTax1</t>
+  </si>
+  <si>
+    <t>residentTax2</t>
+  </si>
+  <si>
+    <t>residentTax3</t>
+  </si>
+  <si>
+    <t>residentTax4</t>
+  </si>
+  <si>
+    <t>residentTax5</t>
+  </si>
+  <si>
+    <t>residentTax6</t>
+  </si>
+  <si>
+    <t>residentTax7</t>
+  </si>
+  <si>
+    <t>residentTax8</t>
+  </si>
+  <si>
+    <t>residentTax9</t>
+  </si>
+  <si>
+    <t>residentTax10</t>
+  </si>
+  <si>
+    <t>residentTax11</t>
+  </si>
+  <si>
+    <t>residentTax12</t>
+  </si>
+  <si>
+    <t>20240807</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>m_incometax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rateID</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>20240801</t>
+  </si>
+  <si>
+    <t>welfarefeeID</t>
+  </si>
+  <si>
+    <t>standSalary</t>
+  </si>
+  <si>
+    <t>salaryFrom</t>
+  </si>
+  <si>
+    <t>salaryTo</t>
+  </si>
+  <si>
+    <t>notCareRatio</t>
+  </si>
+  <si>
+    <t>careRatio</t>
+  </si>
+  <si>
+    <t>annuityRatio</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>m_welfarebabyrate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_welfarefee</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workMonth</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>startStation</t>
+  </si>
+  <si>
+    <t>endStation</t>
+  </si>
+  <si>
+    <t>transportFacility</t>
+  </si>
+  <si>
+    <t>transportExpense1</t>
+  </si>
+  <si>
+    <t>midStation1</t>
+  </si>
+  <si>
+    <t>transportFacility1</t>
+  </si>
+  <si>
+    <t>midStation2</t>
+  </si>
+  <si>
+    <t>transportFacility2</t>
+  </si>
+  <si>
+    <t>midStation3</t>
+  </si>
+  <si>
+    <t>transportFacility3</t>
+  </si>
+  <si>
+    <t>transportExpense2</t>
+  </si>
+  <si>
+    <t>transportExpense3</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>businessTrip</t>
+  </si>
+  <si>
+    <t>BusinessTripName</t>
+  </si>
+  <si>
+    <t>20230230</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Nishikawaguchi</t>
+  </si>
+  <si>
+    <t>Nippori</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>transport</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workStartDay</t>
+  </si>
+  <si>
+    <t>workEndDay</t>
+  </si>
+  <si>
+    <t>workTime</t>
+  </si>
+  <si>
+    <t>workInfoFile</t>
+  </si>
+  <si>
+    <t>20240831</t>
+  </si>
+  <si>
+    <t>20240701</t>
+  </si>
+  <si>
+    <t>20240731</t>
+  </si>
+  <si>
+    <t>workinfo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>稼働管理画面を開く</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員が給料自動作成</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①社員が自分のアカウント（e003@it-softtech.com)でEMSへログインする
+②EMSシステムの「勤怠情報」をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④社員(e002）がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする
 ⑤　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    
 </t>
-    <rPh sb="2" eb="5">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
       <t>キュウリョウ</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="56" eb="58">
       <t>キュウリョウ</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="61" eb="63">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="63" eb="65">
+    <rPh sb="67" eb="69">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="65" eb="67">
+    <rPh sb="69" eb="71">
       <t>ネンゲツ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="72" eb="74">
       <t>ゲンザイ</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="75" eb="77">
       <t>ネンゲツ</t>
     </rPh>
-    <rPh sb="74" eb="76">
+    <rPh sb="78" eb="80">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="80" eb="82">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="87" eb="91">
+    <rPh sb="91" eb="95">
       <t>イッカツサクセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>E00003</t>
-  </si>
-  <si>
-    <t>20240823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">④　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック
-⑤給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック
+    <t>会社A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>会社B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t>会社C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>20240813</t>
+  </si>
+  <si>
+    <t>20200116</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>e002@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20011022</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>給料ダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑥給料を作成した後、「ダウンロード」をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ダウンロード完了
+②ファイルに202408の給料明細のデータがあります。
+</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑦　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック
+⑧給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック
 </t>
     <rPh sb="45" eb="49">
       <t>キュウリョウメイサイ</t>
@@ -586,532 +1151,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>他のテーブルのデータ</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
+    <t>○</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>E00002</t>
-  </si>
-  <si>
-    <t>202407</t>
-  </si>
-  <si>
-    <t>« NULL »</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>contractID</t>
-  </si>
-  <si>
-    <t>contractName</t>
-  </si>
-  <si>
-    <t>companyID</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>payOff</t>
-  </si>
-  <si>
-    <t>lowerTime</t>
-  </si>
-  <si>
-    <t>lowerPrice</t>
-  </si>
-  <si>
-    <t>upperTime</t>
-  </si>
-  <si>
-    <t>upperPrice</t>
-  </si>
-  <si>
-    <t>contractBeginDate</t>
-  </si>
-  <si>
-    <t>contractEndDate</t>
-  </si>
-  <si>
-    <t>paymentTerm</t>
-  </si>
-  <si>
-    <t>postNeed</t>
-  </si>
-  <si>
-    <t>timeReportPath</t>
-  </si>
-  <si>
-    <t>invoice</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>CT001</t>
-  </si>
-  <si>
-    <t>轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>E00001</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>20210101</t>
-  </si>
-  <si>
-    <t>20210131</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>D:/tmp/work</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20240401</t>
-  </si>
-  <si>
-    <t>CT002</t>
-  </si>
-  <si>
-    <t>豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>CT003</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 蝨滄＝蠢崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>contract</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>employeeName</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>epType</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>joinedDate</t>
-  </si>
-  <si>
-    <t>joinedTime</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>mailAdress</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>personNumber</t>
-  </si>
-  <si>
-    <t>ソン</t>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19990902</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20190101</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2310851</t>
-  </si>
-  <si>
-    <t>横浜市中区</t>
-  </si>
-  <si>
-    <t>07012344321</t>
-  </si>
-  <si>
-    <t>e001@it-softtech.com</t>
-  </si>
-  <si>
-    <t>20240530</t>
-  </si>
-  <si>
-    <t>123131231231</t>
-  </si>
-  <si>
-    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
-  </si>
-  <si>
-    <t>2001-10-22</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2310859</t>
-  </si>
-  <si>
-    <t>07012344322</t>
-  </si>
-  <si>
-    <t>nguyen1</t>
-  </si>
-  <si>
-    <t>e003@it-softtech.com</t>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>baseSalary</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>wkPeriodFrom</t>
-  </si>
-  <si>
-    <t>wkPeriodTo</t>
-  </si>
-  <si>
-    <t>overtimePay</t>
-  </si>
-  <si>
-    <t>insufficienttimePay</t>
-  </si>
-  <si>
-    <t>baseSalaryID</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>20240101</t>
-  </si>
-  <si>
-    <t>20240808</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>m_basesalary</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>emplyinsrateID</t>
-  </si>
-  <si>
-    <t>laborBurdenRate</t>
-  </si>
-  <si>
-    <t>employerBurdenRate</t>
-  </si>
-  <si>
-    <t>industrialAccidentInsuranceRate</t>
-  </si>
-  <si>
-    <t>contributionRate</t>
-  </si>
-  <si>
-    <t>R002</t>
-  </si>
-  <si>
-    <t>m_emplyinsrate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>incomeTaxID</t>
-  </si>
-  <si>
-    <t>incomeTax1</t>
-  </si>
-  <si>
-    <t>incomeTax2</t>
-  </si>
-  <si>
-    <t>incomeTax3</t>
-  </si>
-  <si>
-    <t>incomeTax4</t>
-  </si>
-  <si>
-    <t>incomeTax5</t>
-  </si>
-  <si>
-    <t>incomeTax6</t>
-  </si>
-  <si>
-    <t>incomeTax7</t>
-  </si>
-  <si>
-    <t>incomeTax8</t>
-  </si>
-  <si>
-    <t>incomeTax9</t>
-  </si>
-  <si>
-    <t>incomeTax10</t>
-  </si>
-  <si>
-    <t>incomeTax11</t>
-  </si>
-  <si>
-    <t>incomeTax12</t>
-  </si>
-  <si>
-    <t>residentTax1</t>
-  </si>
-  <si>
-    <t>residentTax2</t>
-  </si>
-  <si>
-    <t>residentTax3</t>
-  </si>
-  <si>
-    <t>residentTax4</t>
-  </si>
-  <si>
-    <t>residentTax5</t>
-  </si>
-  <si>
-    <t>residentTax6</t>
-  </si>
-  <si>
-    <t>residentTax7</t>
-  </si>
-  <si>
-    <t>residentTax8</t>
-  </si>
-  <si>
-    <t>residentTax9</t>
-  </si>
-  <si>
-    <t>residentTax10</t>
-  </si>
-  <si>
-    <t>residentTax11</t>
-  </si>
-  <si>
-    <t>residentTax12</t>
-  </si>
-  <si>
-    <t>20240807</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>m_incometax</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>rateID</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>Area1</t>
-  </si>
-  <si>
-    <t>20240801</t>
-  </si>
-  <si>
-    <t>welfarefeeID</t>
-  </si>
-  <si>
-    <t>standSalary</t>
-  </si>
-  <si>
-    <t>salaryFrom</t>
-  </si>
-  <si>
-    <t>salaryTo</t>
-  </si>
-  <si>
-    <t>notCareRatio</t>
-  </si>
-  <si>
-    <t>careRatio</t>
-  </si>
-  <si>
-    <t>annuityRatio</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>m_welfarebabyrate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>m_welfarefee</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>workMonth</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>startStation</t>
-  </si>
-  <si>
-    <t>endStation</t>
-  </si>
-  <si>
-    <t>transportFacility</t>
-  </si>
-  <si>
-    <t>transportExpense1</t>
-  </si>
-  <si>
-    <t>midStation1</t>
-  </si>
-  <si>
-    <t>transportFacility1</t>
-  </si>
-  <si>
-    <t>midStation2</t>
-  </si>
-  <si>
-    <t>transportFacility2</t>
-  </si>
-  <si>
-    <t>midStation3</t>
-  </si>
-  <si>
-    <t>transportFacility3</t>
-  </si>
-  <si>
-    <t>transportExpense2</t>
-  </si>
-  <si>
-    <t>transportExpense3</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>businessTrip</t>
-  </si>
-  <si>
-    <t>BusinessTripName</t>
-  </si>
-  <si>
-    <t>20230230</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Nishikawaguchi</t>
-  </si>
-  <si>
-    <t>Nippori</t>
-  </si>
-  <si>
-    <t>電車</t>
-  </si>
-  <si>
-    <t>transport</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>workStartDay</t>
-  </si>
-  <si>
-    <t>workEndDay</t>
-  </si>
-  <si>
-    <t>workTime</t>
-  </si>
-  <si>
-    <t>workInfoFile</t>
-  </si>
-  <si>
-    <t>20240831</t>
-  </si>
-  <si>
-    <t>20240701</t>
-  </si>
-  <si>
-    <t>20240731</t>
-  </si>
-  <si>
-    <t>workinfo</t>
+    <t>フン</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1158,12 +1202,11 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1173,7 +1216,6 @@
     <font>
       <sz val="11"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1200,7 +1242,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1267,7 +1308,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1703,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,6 +1874,27 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1919,12 +1980,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2040,27 +2095,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2458,16 +2492,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2475,20 +2509,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2513,58 +2547,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="64"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2589,58 +2623,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="70"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
+      <c r="G23" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="53"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2892,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="20">
         <v>45519</v>
@@ -2981,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8:AX8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BO10" sqref="BO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -3065,621 +3099,734 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
       <c r="BM3" s="30"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98" t="s">
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="70" t="s">
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="89">
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="94">
         <v>45519</v>
       </c>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="70" t="s">
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="89" t="s">
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="90"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="95"/>
       <c r="BM4" s="40"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="79" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="79" t="s">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="79" t="s">
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="85"/>
+      <c r="BC5" s="85"/>
+      <c r="BD5" s="85"/>
+      <c r="BE5" s="85"/>
+      <c r="BF5" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="81"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="85"/>
-      <c r="BK5" s="85"/>
-      <c r="BL5" s="85"/>
+      <c r="BG5" s="85"/>
+      <c r="BH5" s="86"/>
+      <c r="BI5" s="85"/>
+      <c r="BJ5" s="90"/>
+      <c r="BK5" s="90"/>
+      <c r="BL5" s="90"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="6" spans="1:65" ht="15.6" thickTop="1"/>
     <row r="7" spans="1:65" s="41" customFormat="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="104" t="s">
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="104" t="s">
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="104" t="s">
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="110"/>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="110"/>
+      <c r="AR7" s="110"/>
+      <c r="AS7" s="110"/>
+      <c r="AT7" s="110"/>
+      <c r="AU7" s="110"/>
+      <c r="AV7" s="110"/>
+      <c r="AW7" s="110"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="104" t="s">
+      <c r="AZ7" s="110"/>
+      <c r="BA7" s="110"/>
+      <c r="BB7" s="110"/>
+      <c r="BC7" s="110"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="104" t="s">
+      <c r="BF7" s="110"/>
+      <c r="BG7" s="110"/>
+      <c r="BH7" s="110"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="106"/>
+      <c r="BK7" s="110"/>
+      <c r="BL7" s="110"/>
+      <c r="BM7" s="111"/>
     </row>
     <row r="8" spans="1:65" ht="69.75" customHeight="1">
-      <c r="A8" s="77">
+      <c r="A8" s="82">
         <v>1</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="107" t="s">
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ8" s="79"/>
+      <c r="BA8" s="79"/>
+      <c r="BB8" s="79"/>
+      <c r="BC8" s="79"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="78"/>
+      <c r="BJ8" s="76">
+        <v>45533</v>
+      </c>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="77"/>
+      <c r="BM8" s="78"/>
+    </row>
+    <row r="9" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
+      <c r="A9" s="83">
+        <v>2</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="64" t="s">
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="70" t="s">
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="71"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="71"/>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="71"/>
-    </row>
-    <row r="9" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
-      <c r="A9" s="78">
-        <v>2</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="67" t="s">
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="79"/>
+      <c r="BB9" s="79"/>
+      <c r="BC9" s="79"/>
+      <c r="BD9" s="80"/>
+      <c r="BE9" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF9" s="77"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="77"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="73">
+        <v>45533</v>
+      </c>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="75"/>
+    </row>
+    <row r="10" spans="1:65" ht="184.2" customHeight="1">
+      <c r="A10" s="82">
+        <v>3</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="64" t="s">
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="72"/>
-      <c r="BA9" s="72"/>
-      <c r="BB9" s="72"/>
-      <c r="BC9" s="72"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="67"/>
-      <c r="BG9" s="67"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="66"/>
-      <c r="BK9" s="67"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="68"/>
-    </row>
-    <row r="10" spans="1:65" ht="184.2" customHeight="1">
-      <c r="A10" s="77">
-        <v>3</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="67" t="s">
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="76">
+        <v>45533</v>
+      </c>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="78"/>
+    </row>
+    <row r="11" spans="1:65" ht="52.2" customHeight="1">
+      <c r="A11" s="82">
+        <v>4</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="115"/>
+      <c r="AK11" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
+      <c r="BC11" s="79"/>
+      <c r="BD11" s="80"/>
+      <c r="BE11" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="78"/>
+      <c r="BJ11" s="73">
+        <v>45533</v>
+      </c>
+      <c r="BK11" s="74"/>
+      <c r="BL11" s="74"/>
+      <c r="BM11" s="75"/>
+    </row>
+    <row r="12" spans="1:65" ht="52.2" customHeight="1">
+      <c r="A12" s="82">
+        <v>5</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="76" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="67" t="s">
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="67"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="67"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="70"/>
-      <c r="BG10" s="70"/>
-      <c r="BH10" s="70"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="70"/>
-      <c r="BL10" s="70"/>
-      <c r="BM10" s="71"/>
-    </row>
-    <row r="11" spans="1:65" ht="52.2" customHeight="1">
-      <c r="A11" s="77">
-        <v>4</v>
-      </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="109"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="112"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="75"/>
-      <c r="BE11" s="70"/>
-      <c r="BF11" s="70"/>
-      <c r="BG11" s="70"/>
-      <c r="BH11" s="70"/>
-      <c r="BI11" s="71"/>
-      <c r="BJ11" s="69"/>
-      <c r="BK11" s="70"/>
-      <c r="BL11" s="70"/>
-      <c r="BM11" s="71"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="116"/>
+      <c r="AP12" s="116"/>
+      <c r="AQ12" s="116"/>
+      <c r="AR12" s="116"/>
+      <c r="AS12" s="116"/>
+      <c r="AT12" s="116"/>
+      <c r="AU12" s="116"/>
+      <c r="AV12" s="116"/>
+      <c r="AW12" s="116"/>
+      <c r="AX12" s="117"/>
+      <c r="AY12" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ12" s="79"/>
+      <c r="BA12" s="79"/>
+      <c r="BB12" s="79"/>
+      <c r="BC12" s="79"/>
+      <c r="BD12" s="80"/>
+      <c r="BE12" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="77"/>
+      <c r="BI12" s="78"/>
+      <c r="BJ12" s="76">
+        <v>45533</v>
+      </c>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="77"/>
+      <c r="BM12" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="AY11:BD11"/>
+  <mergeCells count="65">
     <mergeCell ref="BE11:BI11"/>
     <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="S11:AJ11"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
     <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="AK12:AX12"/>
     <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BE8:BI8"/>
     <mergeCell ref="BJ8:BM8"/>
@@ -3740,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="D19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -3768,7 +3915,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="42" customFormat="1" ht="54">
@@ -3877,16 +4024,16 @@
     </row>
     <row r="3" spans="1:34" s="42" customFormat="1" ht="18">
       <c r="A3" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="43">
         <v>300000</v>
@@ -3966,18 +4113,18 @@
       </c>
       <c r="AE3" s="38"/>
       <c r="AF3" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AH3" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -3985,60 +4132,60 @@
         <v>25</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="36">
       <c r="B8" s="37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="K8" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="L8" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="M8" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="N8" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="P8" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="Q8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="R8" s="37" t="s">
         <v>99</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="37" t="s">
-        <v>104</v>
       </c>
       <c r="S8" s="37" t="s">
         <v>21</v>
@@ -4048,209 +4195,209 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="18">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="45">
+        <v>600000</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="45">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="45">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="M9" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="N9" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="O9" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="114">
+      <c r="Q9" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="R9" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="18">
+      <c r="B10" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="45">
         <v>600000</v>
       </c>
-      <c r="G9" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="113" t="s">
+      <c r="G10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="45">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="45">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="R10" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="114">
+      <c r="S10" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="18">
+      <c r="B11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="45">
+        <v>600000</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="45">
         <v>1000</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J11" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="45">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="114">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="R9" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="T9" s="113" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="18">
-      <c r="B10" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="114">
-        <v>600000</v>
-      </c>
-      <c r="G10" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="114">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="113" t="s">
+      <c r="T11" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="114">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="S10" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" s="113" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="18">
-      <c r="B11" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="114">
-        <v>600000</v>
-      </c>
-      <c r="G11" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="114">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="114">
-        <v>1000</v>
-      </c>
-      <c r="L11" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="R11" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="S11" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="T11" s="113" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="12" spans="1:34" s="36" customFormat="1" ht="18">
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="36">
@@ -4258,46 +4405,46 @@
         <v>20</v>
       </c>
       <c r="C15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="37" t="s">
+      <c r="P15" s="37" t="s">
         <v>128</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>138</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>21</v>
@@ -4306,180 +4453,180 @@
         <v>22</v>
       </c>
       <c r="S15" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="18">
+      <c r="B16" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="18">
+      <c r="B17" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="D17" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="44" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" ht="18">
-      <c r="B16" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="113" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="113" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="113" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="113" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="N16" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="R16" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="S16" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="T16" s="113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="18">
-      <c r="B17" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="113" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="113" t="s">
-        <v>157</v>
-      </c>
-      <c r="M17" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="N17" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="O17" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="R17" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="S17" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="T17" s="113" t="s">
-        <v>153</v>
+      <c r="Q17" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="44" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="36" customFormat="1" ht="18">
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="116"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="47"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="36">
       <c r="B21" s="37" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I21" s="37" t="s">
         <v>21</v>
@@ -4488,45 +4635,45 @@
         <v>22</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L21" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="18">
-      <c r="B22" s="114">
+      <c r="B22" s="45">
         <v>300000</v>
       </c>
-      <c r="C22" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="114">
+      <c r="C22" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="45">
         <v>1</v>
       </c>
-      <c r="E22" s="114">
+      <c r="E22" s="45">
         <v>12</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="49">
         <v>1500</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="49">
         <v>1000</v>
       </c>
-      <c r="H22" s="114">
+      <c r="H22" s="45">
         <v>1</v>
       </c>
-      <c r="I22" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="113" t="s">
-        <v>81</v>
+      <c r="I22" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -4534,30 +4681,30 @@
         <v>25</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="36">
       <c r="B26" s="37" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I26" s="37" t="s">
         <v>21</v>
@@ -4567,32 +4714,32 @@
       </c>
     </row>
     <row r="27" spans="1:31" ht="18">
-      <c r="B27" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="118">
+      <c r="B27" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="49">
         <v>1.567E-2</v>
       </c>
-      <c r="E27" s="118">
+      <c r="E27" s="49">
         <v>2.5669999999999998E-2</v>
       </c>
-      <c r="F27" s="118">
+      <c r="F27" s="49">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="G27" s="118">
+      <c r="G27" s="49">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="45">
         <v>1</v>
       </c>
-      <c r="I27" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="113" t="s">
-        <v>171</v>
+      <c r="I27" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -4600,93 +4747,93 @@
         <v>25</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="36">
       <c r="B31" s="37" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="G31" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="R31" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="T31" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="V31" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="W31" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="X31" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y31" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="Z31" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="AA31" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="AB31" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="I31" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="N31" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="P31" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q31" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="R31" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="S31" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="T31" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="U31" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="V31" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="W31" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="X31" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y31" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z31" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA31" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB31" s="37" t="s">
-        <v>205</v>
-      </c>
       <c r="AC31" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AD31" s="37" t="s">
         <v>21</v>
@@ -4696,279 +4843,279 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="18">
-      <c r="B32" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="114">
+      <c r="B32" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="45">
         <v>1000</v>
       </c>
-      <c r="F32" s="114">
+      <c r="F32" s="45">
         <v>2000</v>
       </c>
-      <c r="G32" s="114">
+      <c r="G32" s="45">
         <v>3000</v>
       </c>
-      <c r="H32" s="114">
+      <c r="H32" s="45">
         <v>4000</v>
       </c>
-      <c r="I32" s="114">
+      <c r="I32" s="45">
         <v>5000</v>
       </c>
-      <c r="J32" s="114">
+      <c r="J32" s="45">
         <v>6000</v>
       </c>
-      <c r="K32" s="114">
+      <c r="K32" s="45">
         <v>7000</v>
       </c>
-      <c r="L32" s="114">
+      <c r="L32" s="45">
         <v>8000</v>
       </c>
-      <c r="M32" s="114">
+      <c r="M32" s="45">
         <v>9000</v>
       </c>
-      <c r="N32" s="114">
+      <c r="N32" s="45">
         <v>10000</v>
       </c>
-      <c r="O32" s="114">
+      <c r="O32" s="45">
         <v>11000</v>
       </c>
-      <c r="P32" s="114">
+      <c r="P32" s="45">
         <v>12000</v>
       </c>
-      <c r="Q32" s="114">
+      <c r="Q32" s="45">
         <v>1300</v>
       </c>
-      <c r="R32" s="114">
+      <c r="R32" s="45">
         <v>1400</v>
       </c>
-      <c r="S32" s="114">
+      <c r="S32" s="45">
         <v>1500</v>
       </c>
-      <c r="T32" s="114">
+      <c r="T32" s="45">
         <v>1600</v>
       </c>
-      <c r="U32" s="114">
+      <c r="U32" s="45">
         <v>1700</v>
       </c>
-      <c r="V32" s="114">
+      <c r="V32" s="45">
         <v>1800</v>
       </c>
-      <c r="W32" s="114">
+      <c r="W32" s="45">
         <v>1900</v>
       </c>
-      <c r="X32" s="114">
+      <c r="X32" s="45">
         <v>2000</v>
       </c>
-      <c r="Y32" s="114">
+      <c r="Y32" s="45">
         <v>2100</v>
       </c>
-      <c r="Z32" s="114">
+      <c r="Z32" s="45">
         <v>2200</v>
       </c>
-      <c r="AA32" s="114">
+      <c r="AA32" s="45">
         <v>2300</v>
       </c>
-      <c r="AB32" s="114">
+      <c r="AB32" s="45">
         <v>2400</v>
       </c>
-      <c r="AC32" s="114">
+      <c r="AC32" s="45">
         <v>1</v>
       </c>
-      <c r="AD32" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE32" s="113" t="s">
-        <v>206</v>
+      <c r="AD32" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE32" s="44" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="18">
-      <c r="B33" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="114">
+      <c r="B33" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="45">
         <v>1100</v>
       </c>
-      <c r="F33" s="114">
+      <c r="F33" s="45">
         <v>2100</v>
       </c>
-      <c r="G33" s="114">
+      <c r="G33" s="45">
         <v>3100</v>
       </c>
-      <c r="H33" s="114">
+      <c r="H33" s="45">
         <v>4100</v>
       </c>
-      <c r="I33" s="114">
+      <c r="I33" s="45">
         <v>5100</v>
       </c>
-      <c r="J33" s="114">
+      <c r="J33" s="45">
         <v>6100</v>
       </c>
-      <c r="K33" s="114">
+      <c r="K33" s="45">
         <v>7100</v>
       </c>
-      <c r="L33" s="114">
+      <c r="L33" s="45">
         <v>8100</v>
       </c>
-      <c r="M33" s="114">
+      <c r="M33" s="45">
         <v>9100</v>
       </c>
-      <c r="N33" s="114">
+      <c r="N33" s="45">
         <v>10100</v>
       </c>
-      <c r="O33" s="114">
+      <c r="O33" s="45">
         <v>11100</v>
       </c>
-      <c r="P33" s="114">
+      <c r="P33" s="45">
         <v>12100</v>
       </c>
-      <c r="Q33" s="114">
+      <c r="Q33" s="45">
         <v>1310</v>
       </c>
-      <c r="R33" s="114">
+      <c r="R33" s="45">
         <v>1410</v>
       </c>
-      <c r="S33" s="114">
+      <c r="S33" s="45">
         <v>1510</v>
       </c>
-      <c r="T33" s="114">
+      <c r="T33" s="45">
         <v>1610</v>
       </c>
-      <c r="U33" s="114">
+      <c r="U33" s="45">
         <v>1710</v>
       </c>
-      <c r="V33" s="114">
+      <c r="V33" s="45">
         <v>1810</v>
       </c>
-      <c r="W33" s="114">
+      <c r="W33" s="45">
         <v>1910</v>
       </c>
-      <c r="X33" s="114">
+      <c r="X33" s="45">
         <v>2010</v>
       </c>
-      <c r="Y33" s="114">
+      <c r="Y33" s="45">
         <v>2110</v>
       </c>
-      <c r="Z33" s="114">
+      <c r="Z33" s="45">
         <v>2210</v>
       </c>
-      <c r="AA33" s="114">
+      <c r="AA33" s="45">
         <v>2310</v>
       </c>
-      <c r="AB33" s="114">
+      <c r="AB33" s="45">
         <v>2410</v>
       </c>
-      <c r="AC33" s="114">
+      <c r="AC33" s="45">
         <v>1</v>
       </c>
-      <c r="AD33" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE33" s="113" t="s">
-        <v>206</v>
+      <c r="AD33" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE33" s="44" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="18">
-      <c r="B34" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="114">
+      <c r="B34" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="45">
         <v>1200</v>
       </c>
-      <c r="F34" s="114">
+      <c r="F34" s="45">
         <v>2200</v>
       </c>
-      <c r="G34" s="114">
+      <c r="G34" s="45">
         <v>3200</v>
       </c>
-      <c r="H34" s="114">
+      <c r="H34" s="45">
         <v>4200</v>
       </c>
-      <c r="I34" s="114">
+      <c r="I34" s="45">
         <v>5200</v>
       </c>
-      <c r="J34" s="114">
+      <c r="J34" s="45">
         <v>6200</v>
       </c>
-      <c r="K34" s="114">
+      <c r="K34" s="45">
         <v>7200</v>
       </c>
-      <c r="L34" s="114">
+      <c r="L34" s="45">
         <v>8200</v>
       </c>
-      <c r="M34" s="114">
+      <c r="M34" s="45">
         <v>9200</v>
       </c>
-      <c r="N34" s="114">
+      <c r="N34" s="45">
         <v>10200</v>
       </c>
-      <c r="O34" s="114">
+      <c r="O34" s="45">
         <v>11200</v>
       </c>
-      <c r="P34" s="114">
+      <c r="P34" s="45">
         <v>12200</v>
       </c>
-      <c r="Q34" s="114">
+      <c r="Q34" s="45">
         <v>1320</v>
       </c>
-      <c r="R34" s="114">
+      <c r="R34" s="45">
         <v>1420</v>
       </c>
-      <c r="S34" s="114">
+      <c r="S34" s="45">
         <v>1520</v>
       </c>
-      <c r="T34" s="114">
+      <c r="T34" s="45">
         <v>1620</v>
       </c>
-      <c r="U34" s="114">
+      <c r="U34" s="45">
         <v>1720</v>
       </c>
-      <c r="V34" s="114">
+      <c r="V34" s="45">
         <v>1820</v>
       </c>
-      <c r="W34" s="114">
+      <c r="W34" s="45">
         <v>1920</v>
       </c>
-      <c r="X34" s="114">
+      <c r="X34" s="45">
         <v>2020</v>
       </c>
-      <c r="Y34" s="114">
+      <c r="Y34" s="45">
         <v>2120</v>
       </c>
-      <c r="Z34" s="114">
+      <c r="Z34" s="45">
         <v>2220</v>
       </c>
-      <c r="AA34" s="114">
+      <c r="AA34" s="45">
         <v>2320</v>
       </c>
-      <c r="AB34" s="114">
+      <c r="AB34" s="45">
         <v>2420</v>
       </c>
-      <c r="AC34" s="114">
+      <c r="AC34" s="45">
         <v>1</v>
       </c>
-      <c r="AD34" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE34" s="113" t="s">
-        <v>206</v>
+      <c r="AD34" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE34" s="44" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -4976,24 +5123,24 @@
         <v>25</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="18">
       <c r="B38" s="37" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>21</v>
@@ -5003,26 +5150,26 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="18">
-      <c r="B39" s="114">
+      <c r="B39" s="45">
         <v>1</v>
       </c>
-      <c r="C39" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="113" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="118">
+      <c r="C39" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="49">
         <v>0.05</v>
       </c>
-      <c r="F39" s="114">
+      <c r="F39" s="45">
         <v>1</v>
       </c>
-      <c r="G39" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" s="113" t="s">
-        <v>213</v>
+      <c r="G39" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -5030,39 +5177,39 @@
         <v>25</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="36">
       <c r="B43" s="37" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L43" s="37" t="s">
         <v>21</v>
@@ -5072,41 +5219,41 @@
       </c>
     </row>
     <row r="44" spans="1:31" ht="18">
-      <c r="B44" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="114">
+      <c r="B44" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="45">
         <v>200000</v>
       </c>
-      <c r="F44" s="114">
+      <c r="F44" s="45">
         <v>250000</v>
       </c>
-      <c r="G44" s="114">
+      <c r="G44" s="45">
         <v>400000</v>
       </c>
-      <c r="H44" s="118">
+      <c r="H44" s="49">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I44" s="118">
+      <c r="I44" s="49">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J44" s="118">
+      <c r="J44" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K44" s="114">
+      <c r="K44" s="45">
         <v>1</v>
       </c>
-      <c r="L44" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="M44" s="113" t="s">
-        <v>171</v>
+      <c r="L44" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="44" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -5114,7 +5261,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="36">
@@ -5122,58 +5269,58 @@
         <v>20</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="J48" s="37" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="K48" s="37" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="N48" s="37" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="O48" s="37" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="P48" s="37" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="R48" s="37" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="S48" s="37" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="T48" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="U48" s="37" t="s">
         <v>21</v>
@@ -5183,133 +5330,133 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="18">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="113" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="F49" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="G49" s="113" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" s="114">
+      <c r="D49" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" s="45">
         <v>1000</v>
       </c>
-      <c r="I49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="K49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="L49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="M49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="N49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="O49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="P49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="R49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="S49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="T49" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="U49" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="V49" s="115" t="s">
-        <v>87</v>
+      <c r="I49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="S49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="T49" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="U49" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="V49" s="46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="18">
-      <c r="B50" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="113" t="s">
-        <v>244</v>
-      </c>
-      <c r="F50" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="G50" s="113" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="114">
+      <c r="B50" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H50" s="45">
         <v>6950</v>
       </c>
-      <c r="I50" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="L50" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="M50" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="N50" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="O50" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="P50" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q50" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="R50" s="114">
+      <c r="I50" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="L50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q50" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R50" s="45">
         <v>0</v>
       </c>
-      <c r="S50" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="T50" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="U50" s="113" t="s">
+      <c r="S50" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="V50" s="115" t="s">
-        <v>87</v>
+      <c r="T50" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="U50" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="V50" s="46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -5317,27 +5464,27 @@
         <v>25</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="36">
       <c r="B54" s="37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="H54" s="37" t="s">
         <v>21</v>
@@ -5347,59 +5494,60 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="18">
-      <c r="B55" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="113" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="113" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="114">
+      <c r="B55" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="45">
         <v>199</v>
       </c>
-      <c r="G55" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" s="115" t="s">
-        <v>87</v>
+      <c r="G55" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="18">
-      <c r="B56" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="113" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" s="113" t="s">
-        <v>252</v>
-      </c>
-      <c r="F56" s="114">
+      <c r="B56" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="45">
         <v>190</v>
       </c>
-      <c r="G56" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="113" t="s">
+      <c r="G56" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="115" t="s">
-        <v>87</v>
+      <c r="H56" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>